--- a/optima/standard-test-data-modded.xlsx
+++ b/optima/standard-test-data-modded.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Transition Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Population Transitions" sheetId="2" r:id="rId2"/>
+    <sheet name="Cascade Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -23,10 +24,13 @@
     <t>Abbreviation</t>
   </si>
   <si>
-    <t>Population 1</t>
+    <t>Minimum Age</t>
   </si>
   <si>
-    <t>Population 2</t>
+    <t>Maximum Age</t>
+  </si>
+  <si>
+    <t>Aging</t>
   </si>
   <si>
     <t>Vaccination Rate</t>
@@ -255,6 +259,18 @@
   </si>
   <si>
     <t>SNeg XDR Death Rate (Treated)</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>School Age Children</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -593,39 +609,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <f>LEFT(A2,3)&amp;"1"</f>
-        <v>Pop1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <f>LEFT(A3,3)&amp;"2"</f>
-        <v>Pop2</v>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -635,10 +670,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'Population Definitions'!B2</f>
+        <v>SAC</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'Population Definitions'!B3</f>
+        <v>Adults</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'Population Definitions'!B2</f>
+        <v>SAC</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'Population Definitions'!B3</f>
+        <v>Adults</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1">
         <v>2000</v>
@@ -751,27 +829,27 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B2">
         <f>IF(SUMPRODUCT(--(D2:AH2&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B3">
         <f>IF(SUMPRODUCT(--(D3:AH3&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:AH3" si="0">IF(D2="","",D2)</f>
@@ -900,10 +978,10 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -1002,27 +1080,27 @@
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B6">
         <f>IF(SUMPRODUCT(--(D6:AH6&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B7">
         <f>IF(SUMPRODUCT(--(D7:AH7&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:AH7" si="1">IF(D6="","",D6)</f>
@@ -1032,6 +1110,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1040,6 +1122,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1048,10 +1134,18 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="O7" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1068,6 +1162,34 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="Z7" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1107,10 +1229,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -1209,27 +1331,27 @@
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B10">
         <f>IF(SUMPRODUCT(--(D10:AH10&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B11">
         <f>IF(SUMPRODUCT(--(D11:AH11&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11:AH11" si="2">IF(D10="","",D10)</f>
@@ -1358,10 +1480,10 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2000</v>
@@ -1460,27 +1582,27 @@
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B14">
         <f>IF(SUMPRODUCT(--(D14:AH14&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
-      </c>
-      <c r="B15" t="str">
+        <v>Adults</v>
+      </c>
+      <c r="B15">
         <f>IF(SUMPRODUCT(--(D15:AH15&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>N.A.</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ref="D15:AH15" si="3">IF(D14="","",D14)</f>
@@ -1502,8 +1624,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I15">
-        <v>1</v>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
@@ -1521,8 +1644,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N15">
-        <v>0</v>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="3"/>
@@ -1540,8 +1664,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S15">
-        <v>0</v>
+      <c r="S15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="3"/>
@@ -1559,8 +1684,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X15">
-        <v>1</v>
+      <c r="X15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="3"/>
@@ -1578,8 +1704,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC15">
-        <v>0</v>
+      <c r="AC15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="3"/>
@@ -1604,10 +1731,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1706,27 +1833,27 @@
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B18">
         <f>IF(SUMPRODUCT(--(D18:AH18&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B19">
         <f>IF(SUMPRODUCT(--(D19:AH19&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ref="D19:AH19" si="4">IF(D18="","",D18)</f>
@@ -1855,10 +1982,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2000</v>
@@ -1957,27 +2084,27 @@
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B22">
         <f>IF(SUMPRODUCT(--(D22:AH22&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B23">
         <f>IF(SUMPRODUCT(--(D23:AH23&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ref="D23:AH23" si="5">IF(D22="","",D22)</f>
@@ -2106,10 +2233,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2000</v>
@@ -2208,27 +2335,27 @@
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B26">
         <f>IF(SUMPRODUCT(--(D26:AH26&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B27">
         <f>IF(SUMPRODUCT(--(D27:AH27&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ref="D27:AH27" si="6">IF(D26="","",D26)</f>
@@ -2357,10 +2484,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2000</v>
@@ -2459,27 +2586,27 @@
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B30">
         <f>IF(SUMPRODUCT(--(D30:AH30&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B31">
         <f>IF(SUMPRODUCT(--(D31:AH31&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ref="D31:AH31" si="7">IF(D30="","",D30)</f>
@@ -2608,10 +2735,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2000</v>
@@ -2710,27 +2837,27 @@
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B34">
         <f>IF(SUMPRODUCT(--(D34:AH34&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B35">
         <f>IF(SUMPRODUCT(--(D35:AH35&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ref="D35:AH35" si="8">IF(D34="","",D34)</f>
@@ -2859,10 +2986,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2000</v>
@@ -2961,27 +3088,27 @@
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B38">
         <f>IF(SUMPRODUCT(--(D38:AH38&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B39">
         <f>IF(SUMPRODUCT(--(D39:AH39&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ref="D39:AH39" si="9">IF(D38="","",D38)</f>
@@ -3110,10 +3237,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2000</v>
@@ -3212,27 +3339,27 @@
     <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B42">
         <f>IF(SUMPRODUCT(--(D42:AH42&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B43">
         <f>IF(SUMPRODUCT(--(D43:AH43&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" ref="D43:AH43" si="10">IF(D42="","",D42)</f>
@@ -3361,10 +3488,10 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2000</v>
@@ -3463,27 +3590,27 @@
     <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B46">
         <f>IF(SUMPRODUCT(--(D46:AH46&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B47">
         <f>IF(SUMPRODUCT(--(D47:AH47&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ref="D47:AH47" si="11">IF(D46="","",D46)</f>
@@ -3612,10 +3739,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>2000</v>
@@ -3714,27 +3841,27 @@
     <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B50">
         <f>IF(SUMPRODUCT(--(D50:AH50&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B51">
         <f>IF(SUMPRODUCT(--(D51:AH51&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" ref="D51:AH51" si="12">IF(D50="","",D50)</f>
@@ -3863,10 +3990,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>2000</v>
@@ -3965,27 +4092,27 @@
     <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B54">
         <f>IF(SUMPRODUCT(--(D54:AH54&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B55">
         <f>IF(SUMPRODUCT(--(D55:AH55&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" ref="D55:AH55" si="13">IF(D54="","",D54)</f>
@@ -4114,10 +4241,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>2000</v>
@@ -4216,27 +4343,27 @@
     <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B58">
         <f>IF(SUMPRODUCT(--(D58:AH58&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B59">
         <f>IF(SUMPRODUCT(--(D59:AH59&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ref="D59:AH59" si="14">IF(D58="","",D58)</f>
@@ -4365,10 +4492,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2000</v>
@@ -4467,27 +4594,27 @@
     <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B62">
         <f>IF(SUMPRODUCT(--(D62:AH62&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B63">
         <f>IF(SUMPRODUCT(--(D63:AH63&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" ref="D63:AH63" si="15">IF(D62="","",D62)</f>
@@ -4616,10 +4743,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>2000</v>
@@ -4718,27 +4845,27 @@
     <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B66">
         <f>IF(SUMPRODUCT(--(D66:AH66&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B67">
         <f>IF(SUMPRODUCT(--(D67:AH67&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:AH67" si="16">IF(D66="","",D66)</f>
@@ -4867,10 +4994,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>2000</v>
@@ -4969,27 +5096,27 @@
     <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B70">
         <f>IF(SUMPRODUCT(--(D70:AH70&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B71">
         <f>IF(SUMPRODUCT(--(D71:AH71&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ref="D71:AH71" si="17">IF(D70="","",D70)</f>
@@ -5118,10 +5245,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>2000</v>
@@ -5220,27 +5347,27 @@
     <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B74">
         <f>IF(SUMPRODUCT(--(D74:AH74&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B75">
         <f>IF(SUMPRODUCT(--(D75:AH75&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ref="D75:AH75" si="18">IF(D74="","",D74)</f>
@@ -5369,10 +5496,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>2000</v>
@@ -5471,27 +5598,27 @@
     <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B78">
         <f>IF(SUMPRODUCT(--(D78:AH78&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B79">
         <f>IF(SUMPRODUCT(--(D79:AH79&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ref="D79:AH79" si="19">IF(D78="","",D78)</f>
@@ -5620,10 +5747,10 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>2000</v>
@@ -5722,27 +5849,27 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B82">
         <f>IF(SUMPRODUCT(--(D82:AH82&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B83">
         <f>IF(SUMPRODUCT(--(D83:AH83&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ref="D83:AH83" si="20">IF(D82="","",D82)</f>
@@ -5871,10 +5998,10 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>2000</v>
@@ -5973,27 +6100,27 @@
     <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B86">
         <f>IF(SUMPRODUCT(--(D86:AH86&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B87">
         <f>IF(SUMPRODUCT(--(D87:AH87&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" ref="D87:AH87" si="21">IF(D86="","",D86)</f>
@@ -6122,10 +6249,10 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>2000</v>
@@ -6224,27 +6351,27 @@
     <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B90">
         <f>IF(SUMPRODUCT(--(D90:AH90&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B91">
         <f>IF(SUMPRODUCT(--(D91:AH91&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" ref="D91:AH91" si="22">IF(D90="","",D90)</f>
@@ -6373,10 +6500,10 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>2000</v>
@@ -6475,27 +6602,27 @@
     <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B94">
         <f>IF(SUMPRODUCT(--(D94:AH94&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B95">
         <f>IF(SUMPRODUCT(--(D95:AH95&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" ref="D95:AH95" si="23">IF(D94="","",D94)</f>
@@ -6624,10 +6751,10 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <v>2000</v>
@@ -6726,27 +6853,27 @@
     <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B98">
         <f>IF(SUMPRODUCT(--(D98:AH98&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B99">
         <f>IF(SUMPRODUCT(--(D99:AH99&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" ref="D99:AH99" si="24">IF(D98="","",D98)</f>
@@ -6875,10 +7002,10 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <v>2000</v>
@@ -6977,27 +7104,27 @@
     <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B102">
         <f>IF(SUMPRODUCT(--(D102:AH102&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B103">
         <f>IF(SUMPRODUCT(--(D103:AH103&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" ref="D103:AH103" si="25">IF(D102="","",D102)</f>
@@ -7126,10 +7253,10 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>2000</v>
@@ -7228,27 +7355,27 @@
     <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B106">
         <f>IF(SUMPRODUCT(--(D106:AH106&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B107">
         <f>IF(SUMPRODUCT(--(D107:AH107&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" ref="D107:AH107" si="26">IF(D106="","",D106)</f>
@@ -7377,10 +7504,10 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109">
         <v>2000</v>
@@ -7479,27 +7606,27 @@
     <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B110">
         <f>IF(SUMPRODUCT(--(D110:AH110&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B111">
         <f>IF(SUMPRODUCT(--(D111:AH111&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" ref="D111:AH111" si="27">IF(D110="","",D110)</f>
@@ -7628,10 +7755,10 @@
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>2000</v>
@@ -7730,27 +7857,27 @@
     <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B114">
         <f>IF(SUMPRODUCT(--(D114:AH114&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B115">
         <f>IF(SUMPRODUCT(--(D115:AH115&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" ref="D115:AH115" si="28">IF(D114="","",D114)</f>
@@ -7879,10 +8006,10 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117">
         <v>2000</v>
@@ -7981,27 +8108,27 @@
     <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B118">
         <f>IF(SUMPRODUCT(--(D118:AH118&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B119">
         <f>IF(SUMPRODUCT(--(D119:AH119&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" ref="D119:AH119" si="29">IF(D118="","",D118)</f>
@@ -8130,10 +8257,10 @@
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D121">
         <v>2000</v>
@@ -8232,27 +8359,27 @@
     <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B122">
         <f>IF(SUMPRODUCT(--(D122:AH122&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B123">
         <f>IF(SUMPRODUCT(--(D123:AH123&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" ref="D123:AH123" si="30">IF(D122="","",D122)</f>
@@ -8381,10 +8508,10 @@
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D125">
         <v>2000</v>
@@ -8483,27 +8610,27 @@
     <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B126">
         <f>IF(SUMPRODUCT(--(D126:AH126&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B127">
         <f>IF(SUMPRODUCT(--(D127:AH127&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" ref="D127:AH127" si="31">IF(D126="","",D126)</f>
@@ -8632,10 +8759,10 @@
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D129">
         <v>2000</v>
@@ -8734,27 +8861,27 @@
     <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B130">
         <f>IF(SUMPRODUCT(--(D130:AH130&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B131">
         <f>IF(SUMPRODUCT(--(D131:AH131&lt;&gt;""))=0,1,"N.A.")</f>
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" ref="D131:AH131" si="32">IF(D130="","",D130)</f>
@@ -8883,10 +9010,10 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133">
         <v>2000</v>
@@ -8985,27 +9112,27 @@
     <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B134">
         <f>IF(SUMPRODUCT(--(D134:AH134&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B135">
         <f>IF(SUMPRODUCT(--(D135:AH135&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" ref="D135:AH135" si="33">IF(D134="","",D134)</f>
@@ -9134,10 +9261,10 @@
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137">
         <v>2000</v>
@@ -9236,27 +9363,27 @@
     <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B138">
         <f>IF(SUMPRODUCT(--(D138:AH138&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B139">
         <f>IF(SUMPRODUCT(--(D139:AH139&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" ref="D139:AH139" si="34">IF(D138="","",D138)</f>
@@ -9385,10 +9512,10 @@
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141">
         <v>2000</v>
@@ -9487,27 +9614,27 @@
     <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B142">
         <f>IF(SUMPRODUCT(--(D142:AH142&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B143">
         <f>IF(SUMPRODUCT(--(D143:AH143&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" ref="D143:AH143" si="35">IF(D142="","",D142)</f>
@@ -9636,10 +9763,10 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D145">
         <v>2000</v>
@@ -9738,27 +9865,27 @@
     <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B146">
         <f>IF(SUMPRODUCT(--(D146:AH146&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B147">
         <f>IF(SUMPRODUCT(--(D147:AH147&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" ref="D147:AH147" si="36">IF(D146="","",D146)</f>
@@ -9887,10 +10014,10 @@
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D149">
         <v>2000</v>
@@ -9989,27 +10116,27 @@
     <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B150">
         <f>IF(SUMPRODUCT(--(D150:AH150&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B151">
         <f>IF(SUMPRODUCT(--(D151:AH151&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" ref="D151:AH151" si="37">IF(D150="","",D150)</f>
@@ -10138,10 +10265,10 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153">
         <v>2000</v>
@@ -10240,27 +10367,27 @@
     <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B154">
         <f>IF(SUMPRODUCT(--(D154:AH154&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B155">
         <f>IF(SUMPRODUCT(--(D155:AH155&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" ref="D155:AH155" si="38">IF(D154="","",D154)</f>
@@ -10389,10 +10516,10 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D157">
         <v>2000</v>
@@ -10491,27 +10618,27 @@
     <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B158">
         <f>IF(SUMPRODUCT(--(D158:AH158&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B159">
         <f>IF(SUMPRODUCT(--(D159:AH159&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" ref="D159:AH159" si="39">IF(D158="","",D158)</f>
@@ -10640,10 +10767,10 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D161">
         <v>2000</v>
@@ -10742,27 +10869,27 @@
     <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B162">
         <f>IF(SUMPRODUCT(--(D162:AH162&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B163">
         <f>IF(SUMPRODUCT(--(D163:AH163&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" ref="D163:AH163" si="40">IF(D162="","",D162)</f>
@@ -10891,10 +11018,10 @@
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D165">
         <v>2000</v>
@@ -10993,27 +11120,27 @@
     <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B166">
         <f>IF(SUMPRODUCT(--(D166:AH166&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B167">
         <f>IF(SUMPRODUCT(--(D167:AH167&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" ref="D167:AH167" si="41">IF(D166="","",D166)</f>
@@ -11142,10 +11269,10 @@
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D169">
         <v>2000</v>
@@ -11244,27 +11371,27 @@
     <row r="170" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B170">
         <f>IF(SUMPRODUCT(--(D170:AH170&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B171">
         <f>IF(SUMPRODUCT(--(D171:AH171&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" ref="D171:AH171" si="42">IF(D170="","",D170)</f>
@@ -11393,10 +11520,10 @@
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173">
         <v>2000</v>
@@ -11495,27 +11622,27 @@
     <row r="174" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B174">
         <f>IF(SUMPRODUCT(--(D174:AH174&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B175">
         <f>IF(SUMPRODUCT(--(D175:AH175&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" ref="D175:AH175" si="43">IF(D174="","",D174)</f>
@@ -11644,10 +11771,10 @@
     </row>
     <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D177">
         <v>2000</v>
@@ -11746,27 +11873,27 @@
     <row r="178" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B178">
         <f>IF(SUMPRODUCT(--(D178:AH178&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B179">
         <f>IF(SUMPRODUCT(--(D179:AH179&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" ref="D179:AH179" si="44">IF(D178="","",D178)</f>
@@ -11895,10 +12022,10 @@
     </row>
     <row r="181" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D181">
         <v>2000</v>
@@ -11997,27 +12124,27 @@
     <row r="182" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B182">
         <f>IF(SUMPRODUCT(--(D182:AH182&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B183">
         <f>IF(SUMPRODUCT(--(D183:AH183&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" ref="D183:AH183" si="45">IF(D182="","",D182)</f>
@@ -12146,10 +12273,10 @@
     </row>
     <row r="185" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D185">
         <v>2000</v>
@@ -12248,27 +12375,27 @@
     <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B186">
         <f>IF(SUMPRODUCT(--(D186:AH186&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B187">
         <f>IF(SUMPRODUCT(--(D187:AH187&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" ref="D187:AH187" si="46">IF(D186="","",D186)</f>
@@ -12397,10 +12524,10 @@
     </row>
     <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D189">
         <v>2000</v>
@@ -12499,27 +12626,27 @@
     <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B190">
         <f>IF(SUMPRODUCT(--(D190:AH190&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B191">
         <f>IF(SUMPRODUCT(--(D191:AH191&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" ref="D191:AH191" si="47">IF(D190="","",D190)</f>
@@ -12648,10 +12775,10 @@
     </row>
     <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D193">
         <v>2000</v>
@@ -12750,27 +12877,27 @@
     <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B194">
         <f>IF(SUMPRODUCT(--(D194:AH194&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B195">
         <f>IF(SUMPRODUCT(--(D195:AH195&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" ref="D195:AH195" si="48">IF(D194="","",D194)</f>
@@ -12899,10 +13026,10 @@
     </row>
     <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D197">
         <v>2000</v>
@@ -13001,27 +13128,27 @@
     <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B198">
         <f>IF(SUMPRODUCT(--(D198:AH198&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B199">
         <f>IF(SUMPRODUCT(--(D199:AH199&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" ref="D199:AH199" si="49">IF(D198="","",D198)</f>
@@ -13150,10 +13277,10 @@
     </row>
     <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D201">
         <v>2000</v>
@@ -13252,27 +13379,27 @@
     <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B202">
         <f>IF(SUMPRODUCT(--(D202:AH202&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B203">
         <f>IF(SUMPRODUCT(--(D203:AH203&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" ref="D203:AH203" si="50">IF(D202="","",D202)</f>
@@ -13401,10 +13528,10 @@
     </row>
     <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D205">
         <v>2000</v>
@@ -13503,27 +13630,27 @@
     <row r="206" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B206">
         <f>IF(SUMPRODUCT(--(D206:AH206&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B207">
         <f>IF(SUMPRODUCT(--(D207:AH207&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" ref="D207:AH207" si="51">IF(D206="","",D206)</f>
@@ -13652,10 +13779,10 @@
     </row>
     <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D209">
         <v>2000</v>
@@ -13754,27 +13881,27 @@
     <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B210">
         <f>IF(SUMPRODUCT(--(D210:AH210&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B211">
         <f>IF(SUMPRODUCT(--(D211:AH211&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" ref="D211:AH211" si="52">IF(D210="","",D210)</f>
@@ -13903,10 +14030,10 @@
     </row>
     <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D213">
         <v>2000</v>
@@ -14005,27 +14132,27 @@
     <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B214">
         <f>IF(SUMPRODUCT(--(D214:AH214&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B215">
         <f>IF(SUMPRODUCT(--(D215:AH215&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" ref="D215:AH215" si="53">IF(D214="","",D214)</f>
@@ -14154,10 +14281,10 @@
     </row>
     <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D217">
         <v>2000</v>
@@ -14256,27 +14383,27 @@
     <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B218">
         <f>IF(SUMPRODUCT(--(D218:AH218&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B219">
         <f>IF(SUMPRODUCT(--(D219:AH219&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" ref="D219:AH219" si="54">IF(D218="","",D218)</f>
@@ -14405,10 +14532,10 @@
     </row>
     <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D221">
         <v>2000</v>
@@ -14507,27 +14634,27 @@
     <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B222">
         <f>IF(SUMPRODUCT(--(D222:AH222&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B223">
         <f>IF(SUMPRODUCT(--(D223:AH223&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" ref="D223:AH223" si="55">IF(D222="","",D222)</f>
@@ -14656,10 +14783,10 @@
     </row>
     <row r="225" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D225">
         <v>2000</v>
@@ -14758,27 +14885,27 @@
     <row r="226" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B226">
         <f>IF(SUMPRODUCT(--(D226:AH226&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B227">
         <f>IF(SUMPRODUCT(--(D227:AH227&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" ref="D227:AH227" si="56">IF(D226="","",D226)</f>
@@ -14907,10 +15034,10 @@
     </row>
     <row r="229" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D229">
         <v>2000</v>
@@ -15009,27 +15136,27 @@
     <row r="230" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B230">
         <f>IF(SUMPRODUCT(--(D230:AH230&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B231">
         <f>IF(SUMPRODUCT(--(D231:AH231&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" ref="D231:AH231" si="57">IF(D230="","",D230)</f>
@@ -15158,10 +15285,10 @@
     </row>
     <row r="233" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D233">
         <v>2000</v>
@@ -15260,27 +15387,27 @@
     <row r="234" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B234">
         <f>IF(SUMPRODUCT(--(D234:AH234&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B235">
         <f>IF(SUMPRODUCT(--(D235:AH235&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" ref="D235:AH235" si="58">IF(D234="","",D234)</f>
@@ -15409,10 +15536,10 @@
     </row>
     <row r="237" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D237">
         <v>2000</v>
@@ -15511,27 +15638,27 @@
     <row r="238" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B238">
         <f>IF(SUMPRODUCT(--(D238:AH238&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B239">
         <f>IF(SUMPRODUCT(--(D239:AH239&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" ref="D239:AH239" si="59">IF(D238="","",D238)</f>
@@ -15660,10 +15787,10 @@
     </row>
     <row r="241" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D241">
         <v>2000</v>
@@ -15762,27 +15889,27 @@
     <row r="242" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A242" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B242">
         <f>IF(SUMPRODUCT(--(D242:AH242&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A243" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B243">
         <f>IF(SUMPRODUCT(--(D243:AH243&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" ref="D243:AH243" si="60">IF(D242="","",D242)</f>
@@ -15911,10 +16038,10 @@
     </row>
     <row r="245" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D245">
         <v>2000</v>
@@ -16013,27 +16140,27 @@
     <row r="246" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A246" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B246">
         <f>IF(SUMPRODUCT(--(D246:AH246&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A247" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B247">
         <f>IF(SUMPRODUCT(--(D247:AH247&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" ref="D247:AH247" si="61">IF(D246="","",D246)</f>
@@ -16162,10 +16289,10 @@
     </row>
     <row r="249" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D249">
         <v>2000</v>
@@ -16264,27 +16391,27 @@
     <row r="250" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A250" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B250">
         <f>IF(SUMPRODUCT(--(D250:AH250&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A251" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B251">
         <f>IF(SUMPRODUCT(--(D251:AH251&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" ref="D251:AH251" si="62">IF(D250="","",D250)</f>
@@ -16413,10 +16540,10 @@
     </row>
     <row r="253" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D253">
         <v>2000</v>
@@ -16515,27 +16642,27 @@
     <row r="254" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A254" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B254">
         <f>IF(SUMPRODUCT(--(D254:AH254&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A255" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B255">
         <f>IF(SUMPRODUCT(--(D255:AH255&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" ref="D255:AH255" si="63">IF(D254="","",D254)</f>
@@ -16664,10 +16791,10 @@
     </row>
     <row r="257" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D257">
         <v>2000</v>
@@ -16766,27 +16893,27 @@
     <row r="258" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A258" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B258">
         <f>IF(SUMPRODUCT(--(D258:AH258&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A259" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B259">
         <f>IF(SUMPRODUCT(--(D259:AH259&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" ref="D259:AH259" si="64">IF(D258="","",D258)</f>
@@ -16915,10 +17042,10 @@
     </row>
     <row r="261" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D261">
         <v>2000</v>
@@ -17017,27 +17144,27 @@
     <row r="262" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A262" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B262">
         <f>IF(SUMPRODUCT(--(D262:AH262&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A263" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B263">
         <f>IF(SUMPRODUCT(--(D263:AH263&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" ref="D263:AH263" si="65">IF(D262="","",D262)</f>
@@ -17166,10 +17293,10 @@
     </row>
     <row r="265" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D265">
         <v>2000</v>
@@ -17268,27 +17395,27 @@
     <row r="266" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A266" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B266">
         <f>IF(SUMPRODUCT(--(D266:AH266&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A267" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B267">
         <f>IF(SUMPRODUCT(--(D267:AH267&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" ref="D267:AH267" si="66">IF(D266="","",D266)</f>
@@ -17417,10 +17544,10 @@
     </row>
     <row r="269" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D269">
         <v>2000</v>
@@ -17519,27 +17646,27 @@
     <row r="270" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A270" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B270">
         <f>IF(SUMPRODUCT(--(D270:AH270&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A271" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B271">
         <f>IF(SUMPRODUCT(--(D271:AH271&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D271" t="str">
         <f t="shared" ref="D271:AH271" si="67">IF(D270="","",D270)</f>
@@ -17668,10 +17795,10 @@
     </row>
     <row r="273" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D273">
         <v>2000</v>
@@ -17770,27 +17897,27 @@
     <row r="274" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A274" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B274">
         <f>IF(SUMPRODUCT(--(D274:AH274&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A275" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B275">
         <f>IF(SUMPRODUCT(--(D275:AH275&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" ref="D275:AH275" si="68">IF(D274="","",D274)</f>
@@ -17919,10 +18046,10 @@
     </row>
     <row r="277" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D277">
         <v>2000</v>
@@ -18021,27 +18148,27 @@
     <row r="278" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A278" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B278">
         <f>IF(SUMPRODUCT(--(D278:AH278&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A279" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B279">
         <f>IF(SUMPRODUCT(--(D279:AH279&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" ref="D279:AH279" si="69">IF(D278="","",D278)</f>
@@ -18170,10 +18297,10 @@
     </row>
     <row r="281" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D281">
         <v>2000</v>
@@ -18272,27 +18399,27 @@
     <row r="282" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A282" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B282">
         <f>IF(SUMPRODUCT(--(D282:AH282&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A283" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B283">
         <f>IF(SUMPRODUCT(--(D283:AH283&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" ref="D283:AH283" si="70">IF(D282="","",D282)</f>
@@ -18421,10 +18548,10 @@
     </row>
     <row r="285" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D285">
         <v>2000</v>
@@ -18523,27 +18650,27 @@
     <row r="286" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A286" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B286">
         <f>IF(SUMPRODUCT(--(D286:AH286&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A287" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B287">
         <f>IF(SUMPRODUCT(--(D287:AH287&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" ref="D287:AH287" si="71">IF(D286="","",D286)</f>
@@ -18672,10 +18799,10 @@
     </row>
     <row r="289" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D289">
         <v>2000</v>
@@ -18774,27 +18901,27 @@
     <row r="290" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A290" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B290">
         <f>IF(SUMPRODUCT(--(D290:AH290&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A291" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B291">
         <f>IF(SUMPRODUCT(--(D291:AH291&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" ref="D291:AH291" si="72">IF(D290="","",D290)</f>
@@ -18923,10 +19050,10 @@
     </row>
     <row r="293" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D293">
         <v>2000</v>
@@ -19025,27 +19152,27 @@
     <row r="294" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A294" t="str">
         <f>'Population Definitions'!A2</f>
-        <v>Population 1</v>
+        <v>School Age Children</v>
       </c>
       <c r="B294">
         <f>IF(SUMPRODUCT(--(D294:AH294&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A295" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Population 2</v>
+        <v>Adults</v>
       </c>
       <c r="B295">
         <f>IF(SUMPRODUCT(--(D295:AH295&lt;&gt;""))=0,0,"N.A.")</f>
         <v>0</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" ref="D295:AH295" si="73">IF(D294="","",D294)</f>

--- a/optima/standard-test-data-modded.xlsx
+++ b/optima/standard-test-data-modded.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -261,10 +261,13 @@
     <t>SNeg XDR Death Rate (Treated)</t>
   </si>
   <si>
+    <t>Death Rate (Other Causes)</t>
+  </si>
+  <si>
     <t>School Age Children</t>
   </si>
   <si>
-    <t>Adults (General)</t>
+    <t>Adults</t>
   </si>
   <si>
     <t>Juvenile Prisoners</t>
@@ -276,13 +279,10 @@
     <t>SAC</t>
   </si>
   <si>
-    <t>Adults</t>
+    <t>JP</t>
   </si>
   <si>
     <t>AP</t>
-  </si>
-  <si>
-    <t>JP</t>
   </si>
   <si>
     <t>y</t>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -651,10 +651,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -715,7 +715,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,9 +778,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH443"/>
+  <dimension ref="A1:AH449"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="E449" sqref="E449"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -905,7 +907,7 @@
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B3">
         <f>IF(SUMPRODUCT(--(D3:AH3&lt;&gt;""))=0,0,"N.A.")</f>
@@ -1430,7 +1432,7 @@
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B9">
         <f>IF(SUMPRODUCT(--(D9:AH9&lt;&gt;""))=0,1,"N.A.")</f>
@@ -1955,7 +1957,7 @@
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B15">
         <f>IF(SUMPRODUCT(--(D15:AH15&lt;&gt;""))=0,0,"N.A.")</f>
@@ -2480,7 +2482,7 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B21">
         <f>IF(SUMPRODUCT(--(D21:AH21&lt;&gt;""))=0,1,"N.A.")</f>
@@ -3005,7 +3007,7 @@
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B27">
         <f>IF(SUMPRODUCT(--(D27:AH27&lt;&gt;""))=0,0,"N.A.")</f>
@@ -3530,7 +3532,7 @@
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B33">
         <f>IF(SUMPRODUCT(--(D33:AH33&lt;&gt;""))=0,1,"N.A.")</f>
@@ -4055,7 +4057,7 @@
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B39">
         <f>IF(SUMPRODUCT(--(D39:AH39&lt;&gt;""))=0,0,"N.A.")</f>
@@ -4580,7 +4582,7 @@
     <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B45">
         <f>IF(SUMPRODUCT(--(D45:AH45&lt;&gt;""))=0,0,"N.A.")</f>
@@ -5105,7 +5107,7 @@
     <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B51">
         <f>IF(SUMPRODUCT(--(D51:AH51&lt;&gt;""))=0,0,"N.A.")</f>
@@ -5630,7 +5632,7 @@
     <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B57">
         <f>IF(SUMPRODUCT(--(D57:AH57&lt;&gt;""))=0,0,"N.A.")</f>
@@ -6155,7 +6157,7 @@
     <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B63">
         <f>IF(SUMPRODUCT(--(D63:AH63&lt;&gt;""))=0,0,"N.A.")</f>
@@ -6680,7 +6682,7 @@
     <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B69">
         <f>IF(SUMPRODUCT(--(D69:AH69&lt;&gt;""))=0,0,"N.A.")</f>
@@ -7205,7 +7207,7 @@
     <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B75">
         <f>IF(SUMPRODUCT(--(D75:AH75&lt;&gt;""))=0,0,"N.A.")</f>
@@ -7730,7 +7732,7 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B81">
         <f>IF(SUMPRODUCT(--(D81:AH81&lt;&gt;""))=0,0,"N.A.")</f>
@@ -8255,7 +8257,7 @@
     <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B87">
         <f>IF(SUMPRODUCT(--(D87:AH87&lt;&gt;""))=0,0,"N.A.")</f>
@@ -8780,7 +8782,7 @@
     <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B93">
         <f>IF(SUMPRODUCT(--(D93:AH93&lt;&gt;""))=0,0,"N.A.")</f>
@@ -9305,7 +9307,7 @@
     <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B99">
         <f>IF(SUMPRODUCT(--(D99:AH99&lt;&gt;""))=0,0,"N.A.")</f>
@@ -9830,7 +9832,7 @@
     <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B105">
         <f>IF(SUMPRODUCT(--(D105:AH105&lt;&gt;""))=0,1,"N.A.")</f>
@@ -10355,7 +10357,7 @@
     <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B111">
         <f>IF(SUMPRODUCT(--(D111:AH111&lt;&gt;""))=0,0,"N.A.")</f>
@@ -10880,7 +10882,7 @@
     <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B117">
         <f>IF(SUMPRODUCT(--(D117:AH117&lt;&gt;""))=0,0,"N.A.")</f>
@@ -11405,7 +11407,7 @@
     <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B123">
         <f>IF(SUMPRODUCT(--(D123:AH123&lt;&gt;""))=0,0,"N.A.")</f>
@@ -11930,7 +11932,7 @@
     <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B129">
         <f>IF(SUMPRODUCT(--(D129:AH129&lt;&gt;""))=0,0,"N.A.")</f>
@@ -12455,7 +12457,7 @@
     <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B135">
         <f>IF(SUMPRODUCT(--(D135:AH135&lt;&gt;""))=0,0,"N.A.")</f>
@@ -12980,7 +12982,7 @@
     <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B141">
         <f>IF(SUMPRODUCT(--(D141:AH141&lt;&gt;""))=0,0,"N.A.")</f>
@@ -13505,7 +13507,7 @@
     <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B147">
         <f>IF(SUMPRODUCT(--(D147:AH147&lt;&gt;""))=0,0,"N.A.")</f>
@@ -14030,7 +14032,7 @@
     <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B153">
         <f>IF(SUMPRODUCT(--(D153:AH153&lt;&gt;""))=0,0,"N.A.")</f>
@@ -14555,7 +14557,7 @@
     <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B159">
         <f>IF(SUMPRODUCT(--(D159:AH159&lt;&gt;""))=0,1,"N.A.")</f>
@@ -15080,7 +15082,7 @@
     <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B165">
         <f>IF(SUMPRODUCT(--(D165:AH165&lt;&gt;""))=0,0,"N.A.")</f>
@@ -15605,7 +15607,7 @@
     <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B171">
         <f>IF(SUMPRODUCT(--(D171:AH171&lt;&gt;""))=0,0,"N.A.")</f>
@@ -16130,7 +16132,7 @@
     <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B177">
         <f>IF(SUMPRODUCT(--(D177:AH177&lt;&gt;""))=0,1,"N.A.")</f>
@@ -16270,8 +16272,7 @@
         <v>Juvenile Prisoners</v>
       </c>
       <c r="B178">
-        <f>IF(SUMPRODUCT(--(D178:AH178&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -16655,7 +16656,7 @@
     <row r="183" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B183">
         <f>IF(SUMPRODUCT(--(D183:AH183&lt;&gt;""))=0,1,"N.A.")</f>
@@ -16795,8 +16796,7 @@
         <v>Juvenile Prisoners</v>
       </c>
       <c r="B184">
-        <f>IF(SUMPRODUCT(--(D184:AH184&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -17180,7 +17180,7 @@
     <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B189">
         <f>IF(SUMPRODUCT(--(D189:AH189&lt;&gt;""))=0,0,"N.A.")</f>
@@ -17705,7 +17705,7 @@
     <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B195">
         <f>IF(SUMPRODUCT(--(D195:AH195&lt;&gt;""))=0,1,"N.A.")</f>
@@ -18230,7 +18230,7 @@
     <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B201">
         <f>IF(SUMPRODUCT(--(D201:AH201&lt;&gt;""))=0,0,"N.A.")</f>
@@ -18755,7 +18755,7 @@
     <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B207">
         <f>IF(SUMPRODUCT(--(D207:AH207&lt;&gt;""))=0,0,"N.A.")</f>
@@ -19280,7 +19280,7 @@
     <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B213">
         <f>IF(SUMPRODUCT(--(D213:AH213&lt;&gt;""))=0,0,"N.A.")</f>
@@ -19805,7 +19805,7 @@
     <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B219">
         <f>IF(SUMPRODUCT(--(D219:AH219&lt;&gt;""))=0,0,"N.A.")</f>
@@ -20330,7 +20330,7 @@
     <row r="225" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B225">
         <f>IF(SUMPRODUCT(--(D225:AH225&lt;&gt;""))=0,0,"N.A.")</f>
@@ -20855,7 +20855,7 @@
     <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B231">
         <f>IF(SUMPRODUCT(--(D231:AH231&lt;&gt;""))=0,0,"N.A.")</f>
@@ -21380,7 +21380,7 @@
     <row r="237" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B237">
         <f>IF(SUMPRODUCT(--(D237:AH237&lt;&gt;""))=0,0,"N.A.")</f>
@@ -21905,7 +21905,7 @@
     <row r="243" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A243" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B243">
         <f>IF(SUMPRODUCT(--(D243:AH243&lt;&gt;""))=0,0,"N.A.")</f>
@@ -22430,7 +22430,7 @@
     <row r="249" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A249" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B249">
         <f>IF(SUMPRODUCT(--(D249:AH249&lt;&gt;""))=0,0,"N.A.")</f>
@@ -22570,8 +22570,7 @@
         <v>Juvenile Prisoners</v>
       </c>
       <c r="B250">
-        <f>IF(SUMPRODUCT(--(D250:AH250&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
@@ -22955,7 +22954,7 @@
     <row r="255" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A255" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B255">
         <f>IF(SUMPRODUCT(--(D255:AH255&lt;&gt;""))=0,0,"N.A.")</f>
@@ -23480,7 +23479,7 @@
     <row r="261" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A261" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B261">
         <f>IF(SUMPRODUCT(--(D261:AH261&lt;&gt;""))=0,0,"N.A.")</f>
@@ -24005,7 +24004,7 @@
     <row r="267" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A267" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B267">
         <f>IF(SUMPRODUCT(--(D267:AH267&lt;&gt;""))=0,0,"N.A.")</f>
@@ -24530,7 +24529,7 @@
     <row r="273" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A273" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B273">
         <f>IF(SUMPRODUCT(--(D273:AH273&lt;&gt;""))=0,0,"N.A.")</f>
@@ -25055,7 +25054,7 @@
     <row r="279" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A279" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B279">
         <f>IF(SUMPRODUCT(--(D279:AH279&lt;&gt;""))=0,0,"N.A.")</f>
@@ -25580,7 +25579,7 @@
     <row r="285" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A285" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B285">
         <f>IF(SUMPRODUCT(--(D285:AH285&lt;&gt;""))=0,0,"N.A.")</f>
@@ -26105,7 +26104,7 @@
     <row r="291" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A291" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B291">
         <f>IF(SUMPRODUCT(--(D291:AH291&lt;&gt;""))=0,0,"N.A.")</f>
@@ -26630,7 +26629,7 @@
     <row r="297" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A297" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B297">
         <f>IF(SUMPRODUCT(--(D297:AH297&lt;&gt;""))=0,0,"N.A.")</f>
@@ -27155,7 +27154,7 @@
     <row r="303" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A303" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B303">
         <f>IF(SUMPRODUCT(--(D303:AH303&lt;&gt;""))=0,0,"N.A.")</f>
@@ -27680,7 +27679,7 @@
     <row r="309" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A309" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B309">
         <f>IF(SUMPRODUCT(--(D309:AH309&lt;&gt;""))=0,0,"N.A.")</f>
@@ -28205,7 +28204,7 @@
     <row r="315" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A315" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B315">
         <f>IF(SUMPRODUCT(--(D315:AH315&lt;&gt;""))=0,0,"N.A.")</f>
@@ -28730,7 +28729,7 @@
     <row r="321" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A321" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B321">
         <f>IF(SUMPRODUCT(--(D321:AH321&lt;&gt;""))=0,0,"N.A.")</f>
@@ -29255,7 +29254,7 @@
     <row r="327" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A327" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B327">
         <f>IF(SUMPRODUCT(--(D327:AH327&lt;&gt;""))=0,0,"N.A.")</f>
@@ -29780,7 +29779,7 @@
     <row r="333" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A333" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B333">
         <f>IF(SUMPRODUCT(--(D333:AH333&lt;&gt;""))=0,0,"N.A.")</f>
@@ -30305,7 +30304,7 @@
     <row r="339" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A339" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B339">
         <f>IF(SUMPRODUCT(--(D339:AH339&lt;&gt;""))=0,0,"N.A.")</f>
@@ -30830,7 +30829,7 @@
     <row r="345" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A345" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B345">
         <f>IF(SUMPRODUCT(--(D345:AH345&lt;&gt;""))=0,0,"N.A.")</f>
@@ -31355,7 +31354,7 @@
     <row r="351" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A351" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B351">
         <f>IF(SUMPRODUCT(--(D351:AH351&lt;&gt;""))=0,0,"N.A.")</f>
@@ -31880,7 +31879,7 @@
     <row r="357" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A357" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B357">
         <f>IF(SUMPRODUCT(--(D357:AH357&lt;&gt;""))=0,0,"N.A.")</f>
@@ -32405,7 +32404,7 @@
     <row r="363" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A363" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B363">
         <f>IF(SUMPRODUCT(--(D363:AH363&lt;&gt;""))=0,0,"N.A.")</f>
@@ -32930,7 +32929,7 @@
     <row r="369" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A369" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B369">
         <f>IF(SUMPRODUCT(--(D369:AH369&lt;&gt;""))=0,0,"N.A.")</f>
@@ -33455,7 +33454,7 @@
     <row r="375" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A375" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B375">
         <f>IF(SUMPRODUCT(--(D375:AH375&lt;&gt;""))=0,0,"N.A.")</f>
@@ -33980,7 +33979,7 @@
     <row r="381" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A381" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B381">
         <f>IF(SUMPRODUCT(--(D381:AH381&lt;&gt;""))=0,0,"N.A.")</f>
@@ -34505,7 +34504,7 @@
     <row r="387" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A387" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B387">
         <f>IF(SUMPRODUCT(--(D387:AH387&lt;&gt;""))=0,0,"N.A.")</f>
@@ -35030,7 +35029,7 @@
     <row r="393" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A393" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B393">
         <f>IF(SUMPRODUCT(--(D393:AH393&lt;&gt;""))=0,0,"N.A.")</f>
@@ -35555,7 +35554,7 @@
     <row r="399" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A399" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B399">
         <f>IF(SUMPRODUCT(--(D399:AH399&lt;&gt;""))=0,0,"N.A.")</f>
@@ -36080,7 +36079,7 @@
     <row r="405" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A405" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B405">
         <f>IF(SUMPRODUCT(--(D405:AH405&lt;&gt;""))=0,0,"N.A.")</f>
@@ -36605,7 +36604,7 @@
     <row r="411" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A411" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B411">
         <f>IF(SUMPRODUCT(--(D411:AH411&lt;&gt;""))=0,0,"N.A.")</f>
@@ -37130,7 +37129,7 @@
     <row r="417" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A417" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B417">
         <f>IF(SUMPRODUCT(--(D417:AH417&lt;&gt;""))=0,0,"N.A.")</f>
@@ -37655,7 +37654,7 @@
     <row r="423" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A423" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B423">
         <f>IF(SUMPRODUCT(--(D423:AH423&lt;&gt;""))=0,0,"N.A.")</f>
@@ -38180,7 +38179,7 @@
     <row r="429" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A429" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B429">
         <f>IF(SUMPRODUCT(--(D429:AH429&lt;&gt;""))=0,0,"N.A.")</f>
@@ -38705,7 +38704,7 @@
     <row r="435" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A435" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B435">
         <f>IF(SUMPRODUCT(--(D435:AH435&lt;&gt;""))=0,0,"N.A.")</f>
@@ -39230,7 +39229,7 @@
     <row r="441" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A441" t="str">
         <f>'Population Definitions'!A3</f>
-        <v>Adults (General)</v>
+        <v>Adults</v>
       </c>
       <c r="B441">
         <f>IF(SUMPRODUCT(--(D441:AH441&lt;&gt;""))=0,0,"N.A.")</f>
@@ -39638,6 +39637,530 @@
         <v/>
       </c>
     </row>
+    <row r="445" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>81</v>
+      </c>
+      <c r="B445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445">
+        <v>2000</v>
+      </c>
+      <c r="E445">
+        <v>2001</v>
+      </c>
+      <c r="F445">
+        <v>2002</v>
+      </c>
+      <c r="G445">
+        <v>2003</v>
+      </c>
+      <c r="H445">
+        <v>2004</v>
+      </c>
+      <c r="I445">
+        <v>2005</v>
+      </c>
+      <c r="J445">
+        <v>2006</v>
+      </c>
+      <c r="K445">
+        <v>2007</v>
+      </c>
+      <c r="L445">
+        <v>2008</v>
+      </c>
+      <c r="M445">
+        <v>2009</v>
+      </c>
+      <c r="N445">
+        <v>2010</v>
+      </c>
+      <c r="O445">
+        <v>2011</v>
+      </c>
+      <c r="P445">
+        <v>2012</v>
+      </c>
+      <c r="Q445">
+        <v>2013</v>
+      </c>
+      <c r="R445">
+        <v>2014</v>
+      </c>
+      <c r="S445">
+        <v>2015</v>
+      </c>
+      <c r="T445">
+        <v>2016</v>
+      </c>
+      <c r="U445">
+        <v>2017</v>
+      </c>
+      <c r="V445">
+        <v>2018</v>
+      </c>
+      <c r="W445">
+        <v>2019</v>
+      </c>
+      <c r="X445">
+        <v>2020</v>
+      </c>
+      <c r="Y445">
+        <v>2021</v>
+      </c>
+      <c r="Z445">
+        <v>2022</v>
+      </c>
+      <c r="AA445">
+        <v>2023</v>
+      </c>
+      <c r="AB445">
+        <v>2024</v>
+      </c>
+      <c r="AC445">
+        <v>2025</v>
+      </c>
+      <c r="AD445">
+        <v>2026</v>
+      </c>
+      <c r="AE445">
+        <v>2027</v>
+      </c>
+      <c r="AF445">
+        <v>2028</v>
+      </c>
+      <c r="AG445">
+        <v>2029</v>
+      </c>
+      <c r="AH445">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="446" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A446" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>School Age Children</v>
+      </c>
+      <c r="B446">
+        <f>IF(SUMPRODUCT(--(D446:AH446&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="C446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A447" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>Adults</v>
+      </c>
+      <c r="B447">
+        <f>IF(SUMPRODUCT(--(D447:AH447&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="C447" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447" t="str">
+        <f t="shared" ref="D447:AH447" si="222">IF(D446="","",D446)</f>
+        <v/>
+      </c>
+      <c r="E447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="F447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="G447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="H447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="I447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="J447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="K447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="L447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="M447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="N447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="O447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="P447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="Q447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="R447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="S447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="T447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="U447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="V447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="W447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="X447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="Y447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="Z447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AA447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AB447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AC447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AD447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AE447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AF447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AG447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AH447" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A448" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>Juvenile Prisoners</v>
+      </c>
+      <c r="B448">
+        <v>0.25</v>
+      </c>
+      <c r="C448" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448" t="str">
+        <f t="shared" ref="D448:AH448" si="223">IF(D446="","",D446)</f>
+        <v/>
+      </c>
+      <c r="E448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="F448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="G448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="H448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="I448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="J448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="K448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="L448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="M448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="N448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="O448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="P448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="Q448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="R448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="S448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="T448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="U448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="V448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="W448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="X448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="Y448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="Z448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AA448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AB448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AC448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AD448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AE448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AF448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AG448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AH448" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A449" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>Adult Prisoners</v>
+      </c>
+      <c r="B449">
+        <f>IF(SUMPRODUCT(--(D449:AH449&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="C449" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" t="str">
+        <f t="shared" ref="D449:AH449" si="224">IF(D446="","",D446)</f>
+        <v/>
+      </c>
+      <c r="E449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="F449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="G449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="H449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="I449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="J449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="K449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="L449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="M449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="N449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="O449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="P449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="Q449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="R449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="S449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="T449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="U449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="V449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="W449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="X449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="Y449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="Z449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="AA449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="AB449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="AC449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="AD449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="AE449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="AF449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="AG449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="AH449" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
